--- a/DataBase/TestDataBase.xlsx
+++ b/DataBase/TestDataBase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1134ab3ca505a/Рабочий стол/Katalog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1134ab3ca505a/Рабочий стол/Brake-Pad-Catalog/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C3D644-3A59-45B9-8C72-06C5DA8BE368}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCFF60F-8A5D-4A48-A828-AB947C0C13B7}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1015">
   <si>
     <t>OEM</t>
   </si>
@@ -3060,16 +3060,34 @@
     <t>Th: 2;
 L: 15;
 W: 7;</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3432,6 +3450,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3695,10 +3717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E948"/>
+  <dimension ref="A1:E949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58:F59"/>
+    <sheetView tabSelected="1" topLeftCell="A945" workbookViewId="0">
+      <selection activeCell="F950" sqref="F950:F952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16980,7 +17002,22 @@
         <v>998</v>
       </c>
     </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A949" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B949" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C949" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D949" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B948">
     <cfRule type="duplicateValues" dxfId="25" priority="29"/>
     <cfRule type="duplicateValues" dxfId="24" priority="30"/>

--- a/DataBase/TestDataBase.xlsx
+++ b/DataBase/TestDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1134ab3ca505a/Рабочий стол/Brake-Pad-Catalog/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCFF60F-8A5D-4A48-A828-AB947C0C13B7}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCFDFD5B-AE75-47A2-893D-89432AFDC9F2}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1011">
   <si>
     <t>OEM</t>
   </si>
@@ -3060,18 +3060,6 @@
     <t>Th: 2;
 L: 15;
 W: 7;</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -3454,6 +3442,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3720,7 +3712,7 @@
   <dimension ref="A1:E949"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A945" workbookViewId="0">
-      <selection activeCell="F950" sqref="F950:F952"/>
+      <selection activeCell="D953" sqref="D953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17003,18 +16995,7 @@
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A949" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B949" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C949" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D949" s="5" t="s">
-        <v>1014</v>
-      </c>
+      <c r="D949" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataBase/TestDataBase.xlsx
+++ b/DataBase/TestDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1134ab3ca505a/Рабочий стол/Brake-Pad-Catalog/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53851FC-197A-40E5-9E14-9007C23A69FA}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7DE2CA9-BC9C-4EE3-B392-DBD4849B8BFE}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1011">
   <si>
     <t>OEM</t>
   </si>
@@ -3060,12 +3060,6 @@
     <t>Th: 2;
 L: 15;
 W: 7;</t>
-  </si>
-  <si>
-    <t>Elturan</t>
-  </si>
-  <si>
-    <t>Idrak</t>
   </si>
 </sst>
 </file>
@@ -3457,6 +3451,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3720,17 +3722,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E949"/>
+  <dimension ref="A1:E948"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A919" workbookViewId="0">
+      <selection activeCell="E926" sqref="E926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.453125" style="5" customWidth="1"/>
     <col min="2" max="3" width="18.6328125" style="5"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -4445,7 +4447,7 @@
       <c r="C51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4459,7 +4461,7 @@
       <c r="C52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4473,7 +4475,7 @@
       <c r="C53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4487,7 +4489,7 @@
       <c r="C54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4501,7 +4503,7 @@
       <c r="C55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4515,7 +4517,7 @@
       <c r="C56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4529,7 +4531,7 @@
       <c r="C57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4543,7 +4545,7 @@
       <c r="C58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4557,7 +4559,7 @@
       <c r="C59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4571,7 +4573,7 @@
       <c r="C60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>999</v>
       </c>
     </row>
@@ -4585,7 +4587,7 @@
       <c r="C61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -4599,7 +4601,7 @@
       <c r="C62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -4613,7 +4615,7 @@
       <c r="C63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -4627,7 +4629,7 @@
       <c r="C64" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -4641,7 +4643,7 @@
       <c r="C65" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -4655,7 +4657,7 @@
       <c r="C66" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -4669,7 +4671,7 @@
       <c r="C67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -4683,7 +4685,7 @@
       <c r="C68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -4697,7 +4699,7 @@
       <c r="C69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -4711,7 +4713,7 @@
       <c r="C70" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -4725,7 +4727,7 @@
       <c r="C71" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -4739,7 +4741,7 @@
       <c r="C72" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -4753,7 +4755,7 @@
       <c r="C73" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4767,7 +4769,7 @@
       <c r="C74" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4781,7 +4783,7 @@
       <c r="C75" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4795,7 +4797,7 @@
       <c r="C76" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4809,7 +4811,7 @@
       <c r="C77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4823,7 +4825,7 @@
       <c r="C78" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -4837,7 +4839,7 @@
       <c r="C79" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4851,7 +4853,7 @@
       <c r="C80" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4865,7 +4867,7 @@
       <c r="C81" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -4879,7 +4881,7 @@
       <c r="C82" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -4893,7 +4895,7 @@
       <c r="C83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -4907,7 +4909,7 @@
       <c r="C84" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4921,7 +4923,7 @@
       <c r="C85" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4935,7 +4937,7 @@
       <c r="C86" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4949,7 +4951,7 @@
       <c r="C87" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4963,7 +4965,7 @@
       <c r="C88" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4977,7 +4979,7 @@
       <c r="C89" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4991,7 +4993,7 @@
       <c r="C90" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5005,7 +5007,7 @@
       <c r="C91" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5019,7 +5021,7 @@
       <c r="C92" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5033,7 +5035,7 @@
       <c r="C93" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -5047,7 +5049,7 @@
       <c r="C94" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -5061,7 +5063,7 @@
       <c r="C95" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -5075,7 +5077,7 @@
       <c r="C96" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -5089,7 +5091,7 @@
       <c r="C97" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -5103,7 +5105,7 @@
       <c r="C98" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5117,7 +5119,7 @@
       <c r="C99" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5131,7 +5133,7 @@
       <c r="C100" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5145,7 +5147,7 @@
       <c r="C101" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5159,7 +5161,7 @@
       <c r="C102" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5173,7 +5175,7 @@
       <c r="C103" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5187,7 +5189,7 @@
       <c r="C104" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5201,7 +5203,7 @@
       <c r="C105" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5215,7 +5217,7 @@
       <c r="C106" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5229,7 +5231,7 @@
       <c r="C107" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5243,7 +5245,7 @@
       <c r="C108" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5257,7 +5259,7 @@
       <c r="C109" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5271,7 +5273,7 @@
       <c r="C110" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5285,7 +5287,7 @@
       <c r="C111" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -5299,7 +5301,7 @@
       <c r="C112" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -5313,7 +5315,7 @@
       <c r="C113" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -5327,7 +5329,7 @@
       <c r="C114" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -5341,7 +5343,7 @@
       <c r="C115" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -5355,7 +5357,7 @@
       <c r="C116" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -5369,7 +5371,7 @@
       <c r="C117" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -5383,7 +5385,7 @@
       <c r="C118" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -5397,7 +5399,7 @@
       <c r="C119" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5411,7 +5413,7 @@
       <c r="C120" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5425,7 +5427,7 @@
       <c r="C121" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5439,7 +5441,7 @@
       <c r="C122" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5453,7 +5455,7 @@
       <c r="C123" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5467,7 +5469,7 @@
       <c r="C124" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5481,7 +5483,7 @@
       <c r="C125" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5495,7 +5497,7 @@
       <c r="C126" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5509,7 +5511,7 @@
       <c r="C127" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5523,7 +5525,7 @@
       <c r="C128" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5537,7 +5539,7 @@
       <c r="C129" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5551,7 +5553,7 @@
       <c r="C130" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5565,7 +5567,7 @@
       <c r="C131" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5579,7 +5581,7 @@
       <c r="C132" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5593,7 +5595,7 @@
       <c r="C133" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5607,7 +5609,7 @@
       <c r="C134" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="5" t="s">
         <v>986</v>
       </c>
     </row>
@@ -5621,7 +5623,7 @@
       <c r="C135" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5635,7 +5637,7 @@
       <c r="C136" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5649,7 +5651,7 @@
       <c r="C137" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5663,7 +5665,7 @@
       <c r="C138" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5677,7 +5679,7 @@
       <c r="C139" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5691,7 +5693,7 @@
       <c r="C140" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5705,7 +5707,7 @@
       <c r="C141" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5719,7 +5721,7 @@
       <c r="C142" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5733,7 +5735,7 @@
       <c r="C143" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5747,7 +5749,7 @@
       <c r="C144" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5761,7 +5763,7 @@
       <c r="C145" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5775,7 +5777,7 @@
       <c r="C146" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5789,7 +5791,7 @@
       <c r="C147" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5803,7 +5805,7 @@
       <c r="C148" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5817,7 +5819,7 @@
       <c r="C149" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5831,7 +5833,7 @@
       <c r="C150" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5845,7 +5847,7 @@
       <c r="C151" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5859,7 +5861,7 @@
       <c r="C152" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5873,7 +5875,7 @@
       <c r="C153" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5887,7 +5889,7 @@
       <c r="C154" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5901,7 +5903,7 @@
       <c r="C155" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5915,7 +5917,7 @@
       <c r="C156" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5929,7 +5931,7 @@
       <c r="C157" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5943,7 +5945,7 @@
       <c r="C158" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5957,7 +5959,7 @@
       <c r="C159" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5971,7 +5973,7 @@
       <c r="C160" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5985,7 +5987,7 @@
       <c r="C161" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5999,7 +6001,7 @@
       <c r="C162" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6013,7 +6015,7 @@
       <c r="C163" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6027,7 +6029,7 @@
       <c r="C164" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6041,7 +6043,7 @@
       <c r="C165" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6055,7 +6057,7 @@
       <c r="C166" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6069,7 +6071,7 @@
       <c r="C167" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6083,7 +6085,7 @@
       <c r="C168" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6097,7 +6099,7 @@
       <c r="C169" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6111,7 +6113,7 @@
       <c r="C170" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6125,7 +6127,7 @@
       <c r="C171" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6139,7 +6141,7 @@
       <c r="C172" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6153,7 +6155,7 @@
       <c r="C173" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6167,7 +6169,7 @@
       <c r="C174" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6181,7 +6183,7 @@
       <c r="C175" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6195,7 +6197,7 @@
       <c r="C176" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6209,7 +6211,7 @@
       <c r="C177" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6223,7 +6225,7 @@
       <c r="C178" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6237,7 +6239,7 @@
       <c r="C179" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6251,7 +6253,7 @@
       <c r="C180" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6265,7 +6267,7 @@
       <c r="C181" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6279,7 +6281,7 @@
       <c r="C182" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6293,7 +6295,7 @@
       <c r="C183" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6307,7 +6309,7 @@
       <c r="C184" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6321,7 +6323,7 @@
       <c r="C185" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="5" t="s">
         <v>987</v>
       </c>
     </row>
@@ -6335,7 +6337,7 @@
       <c r="C186" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="5" t="s">
         <v>987</v>
       </c>
     </row>
@@ -6349,7 +6351,7 @@
       <c r="C187" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="5" t="s">
         <v>987</v>
       </c>
     </row>
@@ -6363,7 +6365,7 @@
       <c r="C188" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="5" t="s">
         <v>987</v>
       </c>
     </row>
@@ -6377,7 +6379,7 @@
       <c r="C189" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -6391,7 +6393,7 @@
       <c r="C190" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -6405,7 +6407,7 @@
       <c r="C191" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -6419,7 +6421,7 @@
       <c r="C192" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -6433,7 +6435,7 @@
       <c r="C193" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="5" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -6447,7 +6449,7 @@
       <c r="C194" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6461,7 +6463,7 @@
       <c r="C195" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6475,7 +6477,7 @@
       <c r="C196" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6489,7 +6491,7 @@
       <c r="C197" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6503,7 +6505,7 @@
       <c r="C198" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6517,7 +6519,7 @@
       <c r="C199" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6531,7 +6533,7 @@
       <c r="C200" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6545,7 +6547,7 @@
       <c r="C201" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -6559,7 +6561,7 @@
       <c r="C202" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6573,7 +6575,7 @@
       <c r="C203" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6587,7 +6589,7 @@
       <c r="C204" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6601,7 +6603,7 @@
       <c r="C205" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6615,7 +6617,7 @@
       <c r="C206" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6629,7 +6631,7 @@
       <c r="C207" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6643,7 +6645,7 @@
       <c r="C208" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6657,7 +6659,7 @@
       <c r="C209" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6671,7 +6673,7 @@
       <c r="C210" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6685,7 +6687,7 @@
       <c r="C211" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -6699,7 +6701,7 @@
       <c r="C212" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -6713,7 +6715,7 @@
       <c r="C213" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -6727,7 +6729,7 @@
       <c r="C214" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6741,7 +6743,7 @@
       <c r="C215" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6755,7 +6757,7 @@
       <c r="C216" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6769,7 +6771,7 @@
       <c r="C217" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6783,7 +6785,7 @@
       <c r="C218" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6797,7 +6799,7 @@
       <c r="C219" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6811,7 +6813,7 @@
       <c r="C220" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6825,7 +6827,7 @@
       <c r="C221" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6839,7 +6841,7 @@
       <c r="C222" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6853,7 +6855,7 @@
       <c r="C223" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6867,7 +6869,7 @@
       <c r="C224" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6881,7 +6883,7 @@
       <c r="C225" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6895,7 +6897,7 @@
       <c r="C226" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6909,7 +6911,7 @@
       <c r="C227" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6923,7 +6925,7 @@
       <c r="C228" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6937,7 +6939,7 @@
       <c r="C229" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6951,7 +6953,7 @@
       <c r="C230" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6965,7 +6967,7 @@
       <c r="C231" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6979,7 +6981,7 @@
       <c r="C232" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -6993,7 +6995,7 @@
       <c r="C233" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -7007,7 +7009,7 @@
       <c r="C234" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -7021,7 +7023,7 @@
       <c r="C235" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -7035,7 +7037,7 @@
       <c r="C236" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -7049,7 +7051,7 @@
       <c r="C237" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -7063,7 +7065,7 @@
       <c r="C238" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -7077,7 +7079,7 @@
       <c r="C239" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -7091,7 +7093,7 @@
       <c r="C240" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7105,7 +7107,7 @@
       <c r="C241" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7119,7 +7121,7 @@
       <c r="C242" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7133,7 +7135,7 @@
       <c r="C243" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7147,7 +7149,7 @@
       <c r="C244" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7161,7 +7163,7 @@
       <c r="C245" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7175,7 +7177,7 @@
       <c r="C246" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7189,7 +7191,7 @@
       <c r="C247" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7203,7 +7205,7 @@
       <c r="C248" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7217,7 +7219,7 @@
       <c r="C249" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7231,7 +7233,7 @@
       <c r="C250" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7245,7 +7247,7 @@
       <c r="C251" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7259,7 +7261,7 @@
       <c r="C252" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7273,7 +7275,7 @@
       <c r="C253" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7287,7 +7289,7 @@
       <c r="C254" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7301,7 +7303,7 @@
       <c r="C255" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7315,7 +7317,7 @@
       <c r="C256" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7329,7 +7331,7 @@
       <c r="C257" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7343,7 +7345,7 @@
       <c r="C258" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7357,7 +7359,7 @@
       <c r="C259" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7371,7 +7373,7 @@
       <c r="C260" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7385,7 +7387,7 @@
       <c r="C261" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7399,7 +7401,7 @@
       <c r="C262" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7413,7 +7415,7 @@
       <c r="C263" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7427,7 +7429,7 @@
       <c r="C264" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7441,7 +7443,7 @@
       <c r="C265" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7455,7 +7457,7 @@
       <c r="C266" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7469,7 +7471,7 @@
       <c r="C267" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7483,7 +7485,7 @@
       <c r="C268" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7497,7 +7499,7 @@
       <c r="C269" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7511,7 +7513,7 @@
       <c r="C270" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7525,7 +7527,7 @@
       <c r="C271" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7539,7 +7541,7 @@
       <c r="C272" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7553,7 +7555,7 @@
       <c r="C273" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7567,7 +7569,7 @@
       <c r="C274" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7581,7 +7583,7 @@
       <c r="C275" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7595,7 +7597,7 @@
       <c r="C276" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7609,7 +7611,7 @@
       <c r="C277" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7623,7 +7625,7 @@
       <c r="C278" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7637,7 +7639,7 @@
       <c r="C279" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7651,7 +7653,7 @@
       <c r="C280" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7665,7 +7667,7 @@
       <c r="C281" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7679,7 +7681,7 @@
       <c r="C282" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7693,7 +7695,7 @@
       <c r="C283" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7707,7 +7709,7 @@
       <c r="C284" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7721,7 +7723,7 @@
       <c r="C285" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7735,7 +7737,7 @@
       <c r="C286" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7749,7 +7751,7 @@
       <c r="C287" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7763,7 +7765,7 @@
       <c r="C288" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7777,7 +7779,7 @@
       <c r="C289" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7791,7 +7793,7 @@
       <c r="C290" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7805,7 +7807,7 @@
       <c r="C291" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7819,7 +7821,7 @@
       <c r="C292" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7833,7 +7835,7 @@
       <c r="C293" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7847,7 +7849,7 @@
       <c r="C294" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7861,7 +7863,7 @@
       <c r="C295" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7875,7 +7877,7 @@
       <c r="C296" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7889,7 +7891,7 @@
       <c r="C297" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7903,7 +7905,7 @@
       <c r="C298" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7917,7 +7919,7 @@
       <c r="C299" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7931,7 +7933,7 @@
       <c r="C300" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7945,7 +7947,7 @@
       <c r="C301" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7959,7 +7961,7 @@
       <c r="C302" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7973,7 +7975,7 @@
       <c r="C303" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7987,7 +7989,7 @@
       <c r="C304" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8001,7 +8003,7 @@
       <c r="C305" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="5" t="s">
         <v>983</v>
       </c>
     </row>
@@ -8015,7 +8017,7 @@
       <c r="C306" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="5" t="s">
         <v>983</v>
       </c>
     </row>
@@ -8029,7 +8031,7 @@
       <c r="C307" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="5" t="s">
         <v>983</v>
       </c>
     </row>
@@ -8043,7 +8045,7 @@
       <c r="C308" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="5" t="s">
         <v>983</v>
       </c>
     </row>
@@ -8057,7 +8059,7 @@
       <c r="C309" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="5" t="s">
         <v>983</v>
       </c>
     </row>
@@ -8071,7 +8073,7 @@
       <c r="C310" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="5" t="s">
         <v>983</v>
       </c>
     </row>
@@ -8085,7 +8087,7 @@
       <c r="C311" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="5" t="s">
         <v>983</v>
       </c>
     </row>
@@ -8099,7 +8101,7 @@
       <c r="C312" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8113,7 +8115,7 @@
       <c r="C313" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8127,7 +8129,7 @@
       <c r="C314" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8141,7 +8143,7 @@
       <c r="C315" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8155,7 +8157,7 @@
       <c r="C316" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8169,7 +8171,7 @@
       <c r="C317" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8183,7 +8185,7 @@
       <c r="C318" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8197,7 +8199,7 @@
       <c r="C319" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8211,7 +8213,7 @@
       <c r="C320" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8225,7 +8227,7 @@
       <c r="C321" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8239,7 +8241,7 @@
       <c r="C322" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8253,7 +8255,7 @@
       <c r="C323" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8267,7 +8269,7 @@
       <c r="C324" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8281,7 +8283,7 @@
       <c r="C325" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8295,7 +8297,7 @@
       <c r="C326" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8309,7 +8311,7 @@
       <c r="C327" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8323,7 +8325,7 @@
       <c r="C328" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8337,7 +8339,7 @@
       <c r="C329" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8351,7 +8353,7 @@
       <c r="C330" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8365,7 +8367,7 @@
       <c r="C331" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8379,7 +8381,7 @@
       <c r="C332" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8393,7 +8395,7 @@
       <c r="C333" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8407,7 +8409,7 @@
       <c r="C334" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8421,7 +8423,7 @@
       <c r="C335" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8435,7 +8437,7 @@
       <c r="C336" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8449,7 +8451,7 @@
       <c r="C337" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8463,7 +8465,7 @@
       <c r="C338" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8477,7 +8479,7 @@
       <c r="C339" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8491,7 +8493,7 @@
       <c r="C340" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8505,7 +8507,7 @@
       <c r="C341" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8519,7 +8521,7 @@
       <c r="C342" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8533,7 +8535,7 @@
       <c r="C343" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8547,7 +8549,7 @@
       <c r="C344" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8561,7 +8563,7 @@
       <c r="C345" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8575,7 +8577,7 @@
       <c r="C346" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8589,7 +8591,7 @@
       <c r="C347" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8603,7 +8605,7 @@
       <c r="C348" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8617,7 +8619,7 @@
       <c r="C349" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8631,7 +8633,7 @@
       <c r="C350" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8645,7 +8647,7 @@
       <c r="C351" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8659,7 +8661,7 @@
       <c r="C352" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8673,7 +8675,7 @@
       <c r="C353" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8687,7 +8689,7 @@
       <c r="C354" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8701,7 +8703,7 @@
       <c r="C355" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8715,7 +8717,7 @@
       <c r="C356" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8729,7 +8731,7 @@
       <c r="C357" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="5" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8743,7 +8745,7 @@
       <c r="C358" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8757,7 +8759,7 @@
       <c r="C359" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8771,7 +8773,7 @@
       <c r="C360" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8785,7 +8787,7 @@
       <c r="C361" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8799,7 +8801,7 @@
       <c r="C362" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8813,7 +8815,7 @@
       <c r="C363" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8827,7 +8829,7 @@
       <c r="C364" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8841,7 +8843,7 @@
       <c r="C365" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8855,7 +8857,7 @@
       <c r="C366" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8869,7 +8871,7 @@
       <c r="C367" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8883,7 +8885,7 @@
       <c r="C368" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8897,7 +8899,7 @@
       <c r="C369" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8911,7 +8913,7 @@
       <c r="C370" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8925,7 +8927,7 @@
       <c r="C371" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8939,7 +8941,7 @@
       <c r="C372" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -8953,7 +8955,7 @@
       <c r="C373" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="5" t="s">
         <v>986</v>
       </c>
     </row>
@@ -8967,7 +8969,7 @@
       <c r="C374" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8981,7 +8983,7 @@
       <c r="C375" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8995,7 +8997,7 @@
       <c r="C376" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9009,7 +9011,7 @@
       <c r="C377" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9023,7 +9025,7 @@
       <c r="C378" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9037,7 +9039,7 @@
       <c r="C379" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9051,7 +9053,7 @@
       <c r="C380" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9065,7 +9067,7 @@
       <c r="C381" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9079,7 +9081,7 @@
       <c r="C382" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9093,7 +9095,7 @@
       <c r="C383" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9107,7 +9109,7 @@
       <c r="C384" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9121,7 +9123,7 @@
       <c r="C385" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9135,7 +9137,7 @@
       <c r="C386" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9149,7 +9151,7 @@
       <c r="C387" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9163,7 +9165,7 @@
       <c r="C388" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9177,7 +9179,7 @@
       <c r="C389" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9191,7 +9193,7 @@
       <c r="C390" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9205,7 +9207,7 @@
       <c r="C391" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9219,7 +9221,7 @@
       <c r="C392" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9233,7 +9235,7 @@
       <c r="C393" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9247,7 +9249,7 @@
       <c r="C394" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9261,7 +9263,7 @@
       <c r="C395" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9275,7 +9277,7 @@
       <c r="C396" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9289,7 +9291,7 @@
       <c r="C397" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9303,7 +9305,7 @@
       <c r="C398" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9317,7 +9319,7 @@
       <c r="C399" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9331,7 +9333,7 @@
       <c r="C400" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9345,7 +9347,7 @@
       <c r="C401" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9359,7 +9361,7 @@
       <c r="C402" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9373,7 +9375,7 @@
       <c r="C403" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9387,7 +9389,7 @@
       <c r="C404" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9401,7 +9403,7 @@
       <c r="C405" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9415,7 +9417,7 @@
       <c r="C406" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9429,7 +9431,7 @@
       <c r="C407" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9443,7 +9445,7 @@
       <c r="C408" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9457,7 +9459,7 @@
       <c r="C409" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9471,7 +9473,7 @@
       <c r="C410" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9485,7 +9487,7 @@
       <c r="C411" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9499,7 +9501,7 @@
       <c r="C412" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9513,7 +9515,7 @@
       <c r="C413" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9527,7 +9529,7 @@
       <c r="C414" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9541,7 +9543,7 @@
       <c r="C415" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9555,7 +9557,7 @@
       <c r="C416" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9569,7 +9571,7 @@
       <c r="C417" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9583,7 +9585,7 @@
       <c r="C418" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9597,7 +9599,7 @@
       <c r="C419" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9611,7 +9613,7 @@
       <c r="C420" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9625,7 +9627,7 @@
       <c r="C421" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="5" t="s">
         <v>986</v>
       </c>
     </row>
@@ -9639,7 +9641,7 @@
       <c r="C422" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="5" t="s">
         <v>987</v>
       </c>
     </row>
@@ -9653,7 +9655,7 @@
       <c r="C423" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9667,7 +9669,7 @@
       <c r="C424" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9681,7 +9683,7 @@
       <c r="C425" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9695,7 +9697,7 @@
       <c r="C426" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9709,7 +9711,7 @@
       <c r="C427" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9723,7 +9725,7 @@
       <c r="C428" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9737,7 +9739,7 @@
       <c r="C429" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9751,7 +9753,7 @@
       <c r="C430" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D430" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9765,7 +9767,7 @@
       <c r="C431" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D431" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9779,7 +9781,7 @@
       <c r="C432" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D432" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9793,7 +9795,7 @@
       <c r="C433" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9807,7 +9809,7 @@
       <c r="C434" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D434" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9821,7 +9823,7 @@
       <c r="C435" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9835,7 +9837,7 @@
       <c r="C436" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9849,7 +9851,7 @@
       <c r="C437" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9863,7 +9865,7 @@
       <c r="C438" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D438" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9877,7 +9879,7 @@
       <c r="C439" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D439" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9891,7 +9893,7 @@
       <c r="C440" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D440" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9905,7 +9907,7 @@
       <c r="C441" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D441" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9919,7 +9921,7 @@
       <c r="C442" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D442" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9933,7 +9935,7 @@
       <c r="C443" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D443" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9947,7 +9949,7 @@
       <c r="C444" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D444" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9961,7 +9963,7 @@
       <c r="C445" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D445" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9975,7 +9977,7 @@
       <c r="C446" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D446" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -9989,7 +9991,7 @@
       <c r="C447" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D447" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10003,7 +10005,7 @@
       <c r="C448" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D448" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10017,7 +10019,7 @@
       <c r="C449" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D449" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10031,7 +10033,7 @@
       <c r="C450" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D450" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10045,7 +10047,7 @@
       <c r="C451" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D451" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10059,7 +10061,7 @@
       <c r="C452" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D452" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10073,7 +10075,7 @@
       <c r="C453" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D453" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10087,7 +10089,7 @@
       <c r="C454" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D454" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10101,7 +10103,7 @@
       <c r="C455" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D455" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10115,7 +10117,7 @@
       <c r="C456" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D456" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10129,7 +10131,7 @@
       <c r="C457" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D457" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10143,7 +10145,7 @@
       <c r="C458" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D458" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10157,7 +10159,7 @@
       <c r="C459" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D459" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10171,7 +10173,7 @@
       <c r="C460" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D460" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10185,7 +10187,7 @@
       <c r="C461" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D461" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10199,7 +10201,7 @@
       <c r="C462" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D462" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10213,7 +10215,7 @@
       <c r="C463" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D463" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10227,7 +10229,7 @@
       <c r="C464" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D464" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10241,7 +10243,7 @@
       <c r="C465" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D465" t="s">
+      <c r="D465" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10255,7 +10257,7 @@
       <c r="C466" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D466" t="s">
+      <c r="D466" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10269,7 +10271,7 @@
       <c r="C467" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D467" t="s">
+      <c r="D467" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10283,7 +10285,7 @@
       <c r="C468" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D468" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10297,7 +10299,7 @@
       <c r="C469" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D469" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10311,7 +10313,7 @@
       <c r="C470" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D470" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10325,7 +10327,7 @@
       <c r="C471" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D471" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10339,7 +10341,7 @@
       <c r="C472" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D472" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10353,7 +10355,7 @@
       <c r="C473" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D473" t="s">
+      <c r="D473" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10367,7 +10369,7 @@
       <c r="C474" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D474" t="s">
+      <c r="D474" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10381,7 +10383,7 @@
       <c r="C475" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D475" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10395,7 +10397,7 @@
       <c r="C476" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D476" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10409,7 +10411,7 @@
       <c r="C477" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D477" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10423,7 +10425,7 @@
       <c r="C478" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D478" t="s">
+      <c r="D478" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10437,7 +10439,7 @@
       <c r="C479" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D479" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10451,7 +10453,7 @@
       <c r="C480" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D480" t="s">
+      <c r="D480" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10465,7 +10467,7 @@
       <c r="C481" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D481" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10479,7 +10481,7 @@
       <c r="C482" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D482" t="s">
+      <c r="D482" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10493,7 +10495,7 @@
       <c r="C483" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D483" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10507,7 +10509,7 @@
       <c r="C484" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D484" t="s">
+      <c r="D484" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10521,7 +10523,7 @@
       <c r="C485" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D485" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10535,7 +10537,7 @@
       <c r="C486" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D486" t="s">
+      <c r="D486" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10549,7 +10551,7 @@
       <c r="C487" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D487" t="s">
+      <c r="D487" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10563,7 +10565,7 @@
       <c r="C488" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D488" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10577,7 +10579,7 @@
       <c r="C489" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D489" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10591,7 +10593,7 @@
       <c r="C490" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D490" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10605,7 +10607,7 @@
       <c r="C491" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D491" t="s">
+      <c r="D491" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10619,7 +10621,7 @@
       <c r="C492" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D492" t="s">
+      <c r="D492" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10633,7 +10635,7 @@
       <c r="C493" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D493" t="s">
+      <c r="D493" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10647,7 +10649,7 @@
       <c r="C494" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D494" t="s">
+      <c r="D494" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10661,7 +10663,7 @@
       <c r="C495" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D495" t="s">
+      <c r="D495" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10675,7 +10677,7 @@
       <c r="C496" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D496" t="s">
+      <c r="D496" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10689,7 +10691,7 @@
       <c r="C497" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D497" t="s">
+      <c r="D497" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10703,7 +10705,7 @@
       <c r="C498" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D498" t="s">
+      <c r="D498" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10717,7 +10719,7 @@
       <c r="C499" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D499" t="s">
+      <c r="D499" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10731,7 +10733,7 @@
       <c r="C500" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D500" t="s">
+      <c r="D500" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10745,7 +10747,7 @@
       <c r="C501" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D501" t="s">
+      <c r="D501" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10759,7 +10761,7 @@
       <c r="C502" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D502" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10773,7 +10775,7 @@
       <c r="C503" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D503" t="s">
+      <c r="D503" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10787,7 +10789,7 @@
       <c r="C504" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D504" t="s">
+      <c r="D504" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10801,7 +10803,7 @@
       <c r="C505" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D505" t="s">
+      <c r="D505" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10815,7 +10817,7 @@
       <c r="C506" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D506" t="s">
+      <c r="D506" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10829,7 +10831,7 @@
       <c r="C507" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D507" t="s">
+      <c r="D507" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10843,7 +10845,7 @@
       <c r="C508" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D508" t="s">
+      <c r="D508" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10857,7 +10859,7 @@
       <c r="C509" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D509" t="s">
+      <c r="D509" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10871,7 +10873,7 @@
       <c r="C510" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D510" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10885,7 +10887,7 @@
       <c r="C511" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D511" t="s">
+      <c r="D511" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10899,7 +10901,7 @@
       <c r="C512" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D512" t="s">
+      <c r="D512" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10913,7 +10915,7 @@
       <c r="C513" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D513" t="s">
+      <c r="D513" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10927,7 +10929,7 @@
       <c r="C514" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D514" t="s">
+      <c r="D514" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10941,7 +10943,7 @@
       <c r="C515" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D515" t="s">
+      <c r="D515" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10955,7 +10957,7 @@
       <c r="C516" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D516" t="s">
+      <c r="D516" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10969,7 +10971,7 @@
       <c r="C517" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D517" t="s">
+      <c r="D517" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10983,7 +10985,7 @@
       <c r="C518" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D518" t="s">
+      <c r="D518" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -10997,7 +10999,7 @@
       <c r="C519" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D519" t="s">
+      <c r="D519" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11011,7 +11013,7 @@
       <c r="C520" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D520" t="s">
+      <c r="D520" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11025,7 +11027,7 @@
       <c r="C521" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D521" t="s">
+      <c r="D521" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11039,7 +11041,7 @@
       <c r="C522" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D522" t="s">
+      <c r="D522" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11053,7 +11055,7 @@
       <c r="C523" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D523" t="s">
+      <c r="D523" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11067,7 +11069,7 @@
       <c r="C524" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D524" t="s">
+      <c r="D524" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11081,7 +11083,7 @@
       <c r="C525" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D525" t="s">
+      <c r="D525" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11095,7 +11097,7 @@
       <c r="C526" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D526" t="s">
+      <c r="D526" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11109,7 +11111,7 @@
       <c r="C527" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D527" t="s">
+      <c r="D527" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11123,7 +11125,7 @@
       <c r="C528" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D528" t="s">
+      <c r="D528" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11137,7 +11139,7 @@
       <c r="C529" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D529" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11151,7 +11153,7 @@
       <c r="C530" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D530" t="s">
+      <c r="D530" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11165,7 +11167,7 @@
       <c r="C531" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D531" t="s">
+      <c r="D531" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11179,7 +11181,7 @@
       <c r="C532" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D532" t="s">
+      <c r="D532" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11193,7 +11195,7 @@
       <c r="C533" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D533" t="s">
+      <c r="D533" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11207,7 +11209,7 @@
       <c r="C534" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D534" t="s">
+      <c r="D534" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11221,7 +11223,7 @@
       <c r="C535" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D535" t="s">
+      <c r="D535" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11235,7 +11237,7 @@
       <c r="C536" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D536" t="s">
+      <c r="D536" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11249,7 +11251,7 @@
       <c r="C537" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D537" t="s">
+      <c r="D537" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11263,7 +11265,7 @@
       <c r="C538" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D538" t="s">
+      <c r="D538" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11277,7 +11279,7 @@
       <c r="C539" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D539" t="s">
+      <c r="D539" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11291,7 +11293,7 @@
       <c r="C540" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D540" t="s">
+      <c r="D540" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11305,7 +11307,7 @@
       <c r="C541" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D541" t="s">
+      <c r="D541" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11319,7 +11321,7 @@
       <c r="C542" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D542" t="s">
+      <c r="D542" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11333,7 +11335,7 @@
       <c r="C543" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D543" t="s">
+      <c r="D543" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11347,7 +11349,7 @@
       <c r="C544" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D544" t="s">
+      <c r="D544" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11361,7 +11363,7 @@
       <c r="C545" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D545" t="s">
+      <c r="D545" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11375,7 +11377,7 @@
       <c r="C546" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D546" t="s">
+      <c r="D546" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11389,7 +11391,7 @@
       <c r="C547" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D547" t="s">
+      <c r="D547" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11403,7 +11405,7 @@
       <c r="C548" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D548" t="s">
+      <c r="D548" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11417,7 +11419,7 @@
       <c r="C549" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D549" t="s">
+      <c r="D549" s="5" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11431,7 +11433,7 @@
       <c r="C550" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D550" t="s">
+      <c r="D550" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11445,7 +11447,7 @@
       <c r="C551" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D551" t="s">
+      <c r="D551" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11459,7 +11461,7 @@
       <c r="C552" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D552" t="s">
+      <c r="D552" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11473,7 +11475,7 @@
       <c r="C553" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D553" t="s">
+      <c r="D553" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11487,7 +11489,7 @@
       <c r="C554" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D554" t="s">
+      <c r="D554" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11501,7 +11503,7 @@
       <c r="C555" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D555" t="s">
+      <c r="D555" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11515,7 +11517,7 @@
       <c r="C556" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D556" t="s">
+      <c r="D556" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11529,7 +11531,7 @@
       <c r="C557" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D557" t="s">
+      <c r="D557" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11543,7 +11545,7 @@
       <c r="C558" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D558" t="s">
+      <c r="D558" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11557,7 +11559,7 @@
       <c r="C559" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D559" t="s">
+      <c r="D559" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11571,7 +11573,7 @@
       <c r="C560" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D560" t="s">
+      <c r="D560" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11585,7 +11587,7 @@
       <c r="C561" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D561" t="s">
+      <c r="D561" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11599,7 +11601,7 @@
       <c r="C562" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D562" t="s">
+      <c r="D562" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11613,7 +11615,7 @@
       <c r="C563" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D563" t="s">
+      <c r="D563" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11627,7 +11629,7 @@
       <c r="C564" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D564" t="s">
+      <c r="D564" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11641,7 +11643,7 @@
       <c r="C565" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D565" t="s">
+      <c r="D565" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11655,7 +11657,7 @@
       <c r="C566" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D566" t="s">
+      <c r="D566" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11669,7 +11671,7 @@
       <c r="C567" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D567" t="s">
+      <c r="D567" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11683,7 +11685,7 @@
       <c r="C568" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D568" t="s">
+      <c r="D568" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11697,7 +11699,7 @@
       <c r="C569" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D569" t="s">
+      <c r="D569" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11711,7 +11713,7 @@
       <c r="C570" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D570" t="s">
+      <c r="D570" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11725,7 +11727,7 @@
       <c r="C571" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D571" t="s">
+      <c r="D571" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11739,7 +11741,7 @@
       <c r="C572" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D572" t="s">
+      <c r="D572" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11753,7 +11755,7 @@
       <c r="C573" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D573" t="s">
+      <c r="D573" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11767,7 +11769,7 @@
       <c r="C574" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D574" t="s">
+      <c r="D574" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11781,7 +11783,7 @@
       <c r="C575" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D575" t="s">
+      <c r="D575" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11795,7 +11797,7 @@
       <c r="C576" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D576" t="s">
+      <c r="D576" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11809,7 +11811,7 @@
       <c r="C577" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D577" t="s">
+      <c r="D577" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11823,7 +11825,7 @@
       <c r="C578" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D578" t="s">
+      <c r="D578" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11837,7 +11839,7 @@
       <c r="C579" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D579" t="s">
+      <c r="D579" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11851,7 +11853,7 @@
       <c r="C580" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D580" t="s">
+      <c r="D580" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11865,7 +11867,7 @@
       <c r="C581" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D581" t="s">
+      <c r="D581" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11879,7 +11881,7 @@
       <c r="C582" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D582" t="s">
+      <c r="D582" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11893,7 +11895,7 @@
       <c r="C583" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D583" t="s">
+      <c r="D583" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11907,7 +11909,7 @@
       <c r="C584" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D584" t="s">
+      <c r="D584" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11921,7 +11923,7 @@
       <c r="C585" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D585" t="s">
+      <c r="D585" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11935,7 +11937,7 @@
       <c r="C586" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D586" t="s">
+      <c r="D586" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11949,7 +11951,7 @@
       <c r="C587" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D587" t="s">
+      <c r="D587" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11963,7 +11965,7 @@
       <c r="C588" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D588" t="s">
+      <c r="D588" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11977,7 +11979,7 @@
       <c r="C589" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D589" t="s">
+      <c r="D589" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -11991,7 +11993,7 @@
       <c r="C590" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D590" t="s">
+      <c r="D590" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12005,7 +12007,7 @@
       <c r="C591" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D591" t="s">
+      <c r="D591" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12019,7 +12021,7 @@
       <c r="C592" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D592" t="s">
+      <c r="D592" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12033,7 +12035,7 @@
       <c r="C593" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D593" t="s">
+      <c r="D593" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12047,7 +12049,7 @@
       <c r="C594" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D594" t="s">
+      <c r="D594" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12061,7 +12063,7 @@
       <c r="C595" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D595" t="s">
+      <c r="D595" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12075,7 +12077,7 @@
       <c r="C596" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D596" t="s">
+      <c r="D596" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12089,7 +12091,7 @@
       <c r="C597" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D597" t="s">
+      <c r="D597" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12103,7 +12105,7 @@
       <c r="C598" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D598" t="s">
+      <c r="D598" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12117,7 +12119,7 @@
       <c r="C599" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D599" t="s">
+      <c r="D599" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12131,7 +12133,7 @@
       <c r="C600" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D600" t="s">
+      <c r="D600" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12145,7 +12147,7 @@
       <c r="C601" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D601" t="s">
+      <c r="D601" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12159,7 +12161,7 @@
       <c r="C602" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D602" t="s">
+      <c r="D602" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12173,7 +12175,7 @@
       <c r="C603" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D603" t="s">
+      <c r="D603" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12187,7 +12189,7 @@
       <c r="C604" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D604" t="s">
+      <c r="D604" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12201,7 +12203,7 @@
       <c r="C605" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D605" t="s">
+      <c r="D605" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12215,7 +12217,7 @@
       <c r="C606" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D606" t="s">
+      <c r="D606" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12229,7 +12231,7 @@
       <c r="C607" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D607" t="s">
+      <c r="D607" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -12243,7 +12245,7 @@
       <c r="C608" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D608" t="s">
+      <c r="D608" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12257,7 +12259,7 @@
       <c r="C609" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D609" t="s">
+      <c r="D609" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12271,7 +12273,7 @@
       <c r="C610" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D610" t="s">
+      <c r="D610" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12285,7 +12287,7 @@
       <c r="C611" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D611" t="s">
+      <c r="D611" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12299,7 +12301,7 @@
       <c r="C612" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D612" t="s">
+      <c r="D612" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12313,7 +12315,7 @@
       <c r="C613" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D613" t="s">
+      <c r="D613" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12327,7 +12329,7 @@
       <c r="C614" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D614" t="s">
+      <c r="D614" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12341,7 +12343,7 @@
       <c r="C615" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D615" t="s">
+      <c r="D615" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12355,7 +12357,7 @@
       <c r="C616" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D616" t="s">
+      <c r="D616" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12369,7 +12371,7 @@
       <c r="C617" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D617" t="s">
+      <c r="D617" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12383,7 +12385,7 @@
       <c r="C618" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D618" t="s">
+      <c r="D618" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12397,7 +12399,7 @@
       <c r="C619" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D619" t="s">
+      <c r="D619" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12411,7 +12413,7 @@
       <c r="C620" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D620" t="s">
+      <c r="D620" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12425,7 +12427,7 @@
       <c r="C621" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D621" t="s">
+      <c r="D621" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12439,7 +12441,7 @@
       <c r="C622" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D622" t="s">
+      <c r="D622" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12453,7 +12455,7 @@
       <c r="C623" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D623" t="s">
+      <c r="D623" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12467,7 +12469,7 @@
       <c r="C624" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D624" t="s">
+      <c r="D624" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12481,7 +12483,7 @@
       <c r="C625" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D625" t="s">
+      <c r="D625" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12495,7 +12497,7 @@
       <c r="C626" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D626" t="s">
+      <c r="D626" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12509,7 +12511,7 @@
       <c r="C627" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D627" t="s">
+      <c r="D627" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12523,7 +12525,7 @@
       <c r="C628" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D628" t="s">
+      <c r="D628" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12537,7 +12539,7 @@
       <c r="C629" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D629" t="s">
+      <c r="D629" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12551,7 +12553,7 @@
       <c r="C630" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D630" t="s">
+      <c r="D630" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12565,7 +12567,7 @@
       <c r="C631" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D631" t="s">
+      <c r="D631" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12579,7 +12581,7 @@
       <c r="C632" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D632" t="s">
+      <c r="D632" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12593,7 +12595,7 @@
       <c r="C633" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D633" t="s">
+      <c r="D633" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12607,7 +12609,7 @@
       <c r="C634" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D634" t="s">
+      <c r="D634" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12621,7 +12623,7 @@
       <c r="C635" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D635" t="s">
+      <c r="D635" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12635,7 +12637,7 @@
       <c r="C636" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D636" t="s">
+      <c r="D636" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12649,7 +12651,7 @@
       <c r="C637" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D637" t="s">
+      <c r="D637" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12663,7 +12665,7 @@
       <c r="C638" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D638" t="s">
+      <c r="D638" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12677,7 +12679,7 @@
       <c r="C639" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D639" t="s">
+      <c r="D639" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12691,7 +12693,7 @@
       <c r="C640" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D640" t="s">
+      <c r="D640" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12705,7 +12707,7 @@
       <c r="C641" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D641" t="s">
+      <c r="D641" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12719,7 +12721,7 @@
       <c r="C642" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D642" t="s">
+      <c r="D642" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12733,7 +12735,7 @@
       <c r="C643" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D643" t="s">
+      <c r="D643" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12747,7 +12749,7 @@
       <c r="C644" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D644" t="s">
+      <c r="D644" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12761,7 +12763,7 @@
       <c r="C645" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D645" t="s">
+      <c r="D645" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12775,7 +12777,7 @@
       <c r="C646" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D646" t="s">
+      <c r="D646" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12789,7 +12791,7 @@
       <c r="C647" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D647" t="s">
+      <c r="D647" s="5" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12803,7 +12805,7 @@
       <c r="C648" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="D648" t="s">
+      <c r="D648" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12817,7 +12819,7 @@
       <c r="C649" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="D649" t="s">
+      <c r="D649" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12831,7 +12833,7 @@
       <c r="C650" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="D650" t="s">
+      <c r="D650" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12845,7 +12847,7 @@
       <c r="C651" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D651" t="s">
+      <c r="D651" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12859,7 +12861,7 @@
       <c r="C652" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="D652" t="s">
+      <c r="D652" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12873,7 +12875,7 @@
       <c r="C653" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D653" t="s">
+      <c r="D653" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12887,7 +12889,7 @@
       <c r="C654" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="D654" t="s">
+      <c r="D654" s="5" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -12901,7 +12903,7 @@
       <c r="C655" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="D655" t="s">
+      <c r="D655" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12915,7 +12917,7 @@
       <c r="C656" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D656" t="s">
+      <c r="D656" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -12929,7 +12931,7 @@
       <c r="C657" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D657" t="s">
+      <c r="D657" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -12943,7 +12945,7 @@
       <c r="C658" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D658" t="s">
+      <c r="D658" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -12957,7 +12959,7 @@
       <c r="C659" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D659" t="s">
+      <c r="D659" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -12971,7 +12973,7 @@
       <c r="C660" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D660" t="s">
+      <c r="D660" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -12985,7 +12987,7 @@
       <c r="C661" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D661" t="s">
+      <c r="D661" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -12999,7 +13001,7 @@
       <c r="C662" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D662" t="s">
+      <c r="D662" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -13013,7 +13015,7 @@
       <c r="C663" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D663" t="s">
+      <c r="D663" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -13027,7 +13029,7 @@
       <c r="C664" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D664" t="s">
+      <c r="D664" s="5" t="s">
         <v>994</v>
       </c>
     </row>
@@ -13041,7 +13043,7 @@
       <c r="C665" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D665" t="s">
+      <c r="D665" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13055,7 +13057,7 @@
       <c r="C666" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D666" t="s">
+      <c r="D666" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13069,7 +13071,7 @@
       <c r="C667" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D667" t="s">
+      <c r="D667" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13083,7 +13085,7 @@
       <c r="C668" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D668" t="s">
+      <c r="D668" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13097,7 +13099,7 @@
       <c r="C669" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D669" t="s">
+      <c r="D669" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13111,7 +13113,7 @@
       <c r="C670" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D670" t="s">
+      <c r="D670" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13125,7 +13127,7 @@
       <c r="C671" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D671" t="s">
+      <c r="D671" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13139,7 +13141,7 @@
       <c r="C672" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D672" t="s">
+      <c r="D672" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13153,7 +13155,7 @@
       <c r="C673" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D673" t="s">
+      <c r="D673" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13167,7 +13169,7 @@
       <c r="C674" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D674" t="s">
+      <c r="D674" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13181,7 +13183,7 @@
       <c r="C675" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D675" t="s">
+      <c r="D675" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13195,7 +13197,7 @@
       <c r="C676" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D676" t="s">
+      <c r="D676" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13209,7 +13211,7 @@
       <c r="C677" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D677" t="s">
+      <c r="D677" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13223,7 +13225,7 @@
       <c r="C678" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D678" t="s">
+      <c r="D678" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13237,7 +13239,7 @@
       <c r="C679" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D679" t="s">
+      <c r="D679" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13251,7 +13253,7 @@
       <c r="C680" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D680" t="s">
+      <c r="D680" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13265,7 +13267,7 @@
       <c r="C681" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D681" t="s">
+      <c r="D681" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13279,7 +13281,7 @@
       <c r="C682" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D682" t="s">
+      <c r="D682" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13293,7 +13295,7 @@
       <c r="C683" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D683" t="s">
+      <c r="D683" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13307,7 +13309,7 @@
       <c r="C684" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D684" t="s">
+      <c r="D684" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13321,7 +13323,7 @@
       <c r="C685" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D685" t="s">
+      <c r="D685" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13335,7 +13337,7 @@
       <c r="C686" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D686" t="s">
+      <c r="D686" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13349,7 +13351,7 @@
       <c r="C687" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D687" t="s">
+      <c r="D687" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13363,7 +13365,7 @@
       <c r="C688" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D688" t="s">
+      <c r="D688" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13377,7 +13379,7 @@
       <c r="C689" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D689" t="s">
+      <c r="D689" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13391,7 +13393,7 @@
       <c r="C690" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D690" t="s">
+      <c r="D690" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13405,7 +13407,7 @@
       <c r="C691" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D691" t="s">
+      <c r="D691" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13419,7 +13421,7 @@
       <c r="C692" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D692" t="s">
+      <c r="D692" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13433,7 +13435,7 @@
       <c r="C693" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D693" t="s">
+      <c r="D693" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13447,7 +13449,7 @@
       <c r="C694" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D694" t="s">
+      <c r="D694" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13461,7 +13463,7 @@
       <c r="C695" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D695" t="s">
+      <c r="D695" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13475,7 +13477,7 @@
       <c r="C696" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D696" t="s">
+      <c r="D696" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13489,7 +13491,7 @@
       <c r="C697" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D697" t="s">
+      <c r="D697" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13503,7 +13505,7 @@
       <c r="C698" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D698" t="s">
+      <c r="D698" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13517,7 +13519,7 @@
       <c r="C699" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D699" t="s">
+      <c r="D699" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13531,7 +13533,7 @@
       <c r="C700" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D700" t="s">
+      <c r="D700" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13545,7 +13547,7 @@
       <c r="C701" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D701" t="s">
+      <c r="D701" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13559,7 +13561,7 @@
       <c r="C702" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D702" t="s">
+      <c r="D702" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13573,7 +13575,7 @@
       <c r="C703" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D703" t="s">
+      <c r="D703" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13587,7 +13589,7 @@
       <c r="C704" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D704" t="s">
+      <c r="D704" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13601,7 +13603,7 @@
       <c r="C705" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D705" t="s">
+      <c r="D705" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13615,7 +13617,7 @@
       <c r="C706" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D706" t="s">
+      <c r="D706" s="5" t="s">
         <v>997</v>
       </c>
     </row>
@@ -13629,7 +13631,7 @@
       <c r="C707" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="D707" t="s">
+      <c r="D707" s="5" t="s">
         <v>986</v>
       </c>
     </row>
@@ -13643,7 +13645,7 @@
       <c r="C708" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D708" t="s">
+      <c r="D708" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13657,7 +13659,7 @@
       <c r="C709" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D709" t="s">
+      <c r="D709" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13671,7 +13673,7 @@
       <c r="C710" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D710" t="s">
+      <c r="D710" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13685,7 +13687,7 @@
       <c r="C711" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D711" t="s">
+      <c r="D711" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13699,7 +13701,7 @@
       <c r="C712" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D712" t="s">
+      <c r="D712" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13713,7 +13715,7 @@
       <c r="C713" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D713" t="s">
+      <c r="D713" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13727,7 +13729,7 @@
       <c r="C714" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D714" t="s">
+      <c r="D714" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13741,7 +13743,7 @@
       <c r="C715" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D715" t="s">
+      <c r="D715" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13755,7 +13757,7 @@
       <c r="C716" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D716" t="s">
+      <c r="D716" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13769,7 +13771,7 @@
       <c r="C717" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D717" t="s">
+      <c r="D717" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13783,7 +13785,7 @@
       <c r="C718" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D718" t="s">
+      <c r="D718" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13797,7 +13799,7 @@
       <c r="C719" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D719" t="s">
+      <c r="D719" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13811,7 +13813,7 @@
       <c r="C720" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D720" t="s">
+      <c r="D720" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13825,7 +13827,7 @@
       <c r="C721" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D721" t="s">
+      <c r="D721" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13839,7 +13841,7 @@
       <c r="C722" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D722" t="s">
+      <c r="D722" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13853,7 +13855,7 @@
       <c r="C723" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D723" t="s">
+      <c r="D723" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13867,7 +13869,7 @@
       <c r="C724" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D724" t="s">
+      <c r="D724" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13881,7 +13883,7 @@
       <c r="C725" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D725" t="s">
+      <c r="D725" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13895,7 +13897,7 @@
       <c r="C726" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D726" t="s">
+      <c r="D726" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13909,7 +13911,7 @@
       <c r="C727" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D727" t="s">
+      <c r="D727" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13923,7 +13925,7 @@
       <c r="C728" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D728" t="s">
+      <c r="D728" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13937,7 +13939,7 @@
       <c r="C729" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D729" t="s">
+      <c r="D729" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13951,7 +13953,7 @@
       <c r="C730" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D730" t="s">
+      <c r="D730" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13965,7 +13967,7 @@
       <c r="C731" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D731" t="s">
+      <c r="D731" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13979,7 +13981,7 @@
       <c r="C732" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D732" t="s">
+      <c r="D732" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13993,7 +13995,7 @@
       <c r="C733" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D733" t="s">
+      <c r="D733" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14007,7 +14009,7 @@
       <c r="C734" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D734" t="s">
+      <c r="D734" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14021,7 +14023,7 @@
       <c r="C735" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D735" t="s">
+      <c r="D735" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14035,7 +14037,7 @@
       <c r="C736" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D736" t="s">
+      <c r="D736" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14049,7 +14051,7 @@
       <c r="C737" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D737" t="s">
+      <c r="D737" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14063,7 +14065,7 @@
       <c r="C738" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D738" t="s">
+      <c r="D738" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14077,7 +14079,7 @@
       <c r="C739" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D739" t="s">
+      <c r="D739" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14091,7 +14093,7 @@
       <c r="C740" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D740" t="s">
+      <c r="D740" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14105,7 +14107,7 @@
       <c r="C741" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D741" t="s">
+      <c r="D741" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14119,7 +14121,7 @@
       <c r="C742" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D742" t="s">
+      <c r="D742" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14133,7 +14135,7 @@
       <c r="C743" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D743" t="s">
+      <c r="D743" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14147,7 +14149,7 @@
       <c r="C744" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D744" t="s">
+      <c r="D744" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14161,7 +14163,7 @@
       <c r="C745" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D745" t="s">
+      <c r="D745" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14175,7 +14177,7 @@
       <c r="C746" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D746" t="s">
+      <c r="D746" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14189,7 +14191,7 @@
       <c r="C747" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D747" t="s">
+      <c r="D747" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14203,7 +14205,7 @@
       <c r="C748" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D748" t="s">
+      <c r="D748" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14217,7 +14219,7 @@
       <c r="C749" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D749" t="s">
+      <c r="D749" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14231,7 +14233,7 @@
       <c r="C750" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D750" t="s">
+      <c r="D750" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14245,7 +14247,7 @@
       <c r="C751" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D751" t="s">
+      <c r="D751" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14259,7 +14261,7 @@
       <c r="C752" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D752" t="s">
+      <c r="D752" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14273,7 +14275,7 @@
       <c r="C753" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D753" t="s">
+      <c r="D753" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14287,7 +14289,7 @@
       <c r="C754" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D754" t="s">
+      <c r="D754" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14301,7 +14303,7 @@
       <c r="C755" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D755" t="s">
+      <c r="D755" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14315,7 +14317,7 @@
       <c r="C756" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D756" t="s">
+      <c r="D756" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14329,7 +14331,7 @@
       <c r="C757" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D757" t="s">
+      <c r="D757" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14343,7 +14345,7 @@
       <c r="C758" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D758" t="s">
+      <c r="D758" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14357,7 +14359,7 @@
       <c r="C759" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D759" t="s">
+      <c r="D759" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14371,7 +14373,7 @@
       <c r="C760" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D760" t="s">
+      <c r="D760" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14385,7 +14387,7 @@
       <c r="C761" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D761" t="s">
+      <c r="D761" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14399,7 +14401,7 @@
       <c r="C762" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D762" t="s">
+      <c r="D762" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14413,7 +14415,7 @@
       <c r="C763" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D763" t="s">
+      <c r="D763" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14427,7 +14429,7 @@
       <c r="C764" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D764" t="s">
+      <c r="D764" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14441,7 +14443,7 @@
       <c r="C765" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D765" t="s">
+      <c r="D765" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14455,7 +14457,7 @@
       <c r="C766" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D766" t="s">
+      <c r="D766" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14469,7 +14471,7 @@
       <c r="C767" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D767" t="s">
+      <c r="D767" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14483,7 +14485,7 @@
       <c r="C768" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D768" t="s">
+      <c r="D768" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14497,7 +14499,7 @@
       <c r="C769" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D769" t="s">
+      <c r="D769" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14511,7 +14513,7 @@
       <c r="C770" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D770" t="s">
+      <c r="D770" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14525,7 +14527,7 @@
       <c r="C771" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D771" t="s">
+      <c r="D771" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14539,7 +14541,7 @@
       <c r="C772" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D772" t="s">
+      <c r="D772" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14553,7 +14555,7 @@
       <c r="C773" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D773" t="s">
+      <c r="D773" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14567,7 +14569,7 @@
       <c r="C774" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D774" t="s">
+      <c r="D774" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14581,7 +14583,7 @@
       <c r="C775" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D775" t="s">
+      <c r="D775" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14595,7 +14597,7 @@
       <c r="C776" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D776" t="s">
+      <c r="D776" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14609,7 +14611,7 @@
       <c r="C777" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D777" t="s">
+      <c r="D777" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14623,7 +14625,7 @@
       <c r="C778" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D778" t="s">
+      <c r="D778" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14637,7 +14639,7 @@
       <c r="C779" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D779" t="s">
+      <c r="D779" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14651,7 +14653,7 @@
       <c r="C780" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D780" t="s">
+      <c r="D780" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14665,7 +14667,7 @@
       <c r="C781" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D781" t="s">
+      <c r="D781" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14679,7 +14681,7 @@
       <c r="C782" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D782" t="s">
+      <c r="D782" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14693,7 +14695,7 @@
       <c r="C783" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D783" t="s">
+      <c r="D783" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14707,7 +14709,7 @@
       <c r="C784" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D784" t="s">
+      <c r="D784" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14721,7 +14723,7 @@
       <c r="C785" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D785" t="s">
+      <c r="D785" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14735,7 +14737,7 @@
       <c r="C786" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D786" t="s">
+      <c r="D786" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14749,7 +14751,7 @@
       <c r="C787" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D787" t="s">
+      <c r="D787" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14763,7 +14765,7 @@
       <c r="C788" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D788" t="s">
+      <c r="D788" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14777,7 +14779,7 @@
       <c r="C789" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D789" t="s">
+      <c r="D789" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14791,7 +14793,7 @@
       <c r="C790" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D790" t="s">
+      <c r="D790" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14805,7 +14807,7 @@
       <c r="C791" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D791" t="s">
+      <c r="D791" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14819,7 +14821,7 @@
       <c r="C792" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D792" t="s">
+      <c r="D792" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14833,7 +14835,7 @@
       <c r="C793" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D793" t="s">
+      <c r="D793" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14847,7 +14849,7 @@
       <c r="C794" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D794" t="s">
+      <c r="D794" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14861,7 +14863,7 @@
       <c r="C795" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D795" t="s">
+      <c r="D795" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14875,7 +14877,7 @@
       <c r="C796" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D796" t="s">
+      <c r="D796" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14889,7 +14891,7 @@
       <c r="C797" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D797" t="s">
+      <c r="D797" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14903,7 +14905,7 @@
       <c r="C798" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D798" t="s">
+      <c r="D798" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14917,7 +14919,7 @@
       <c r="C799" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D799" t="s">
+      <c r="D799" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14931,7 +14933,7 @@
       <c r="C800" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D800" t="s">
+      <c r="D800" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14945,7 +14947,7 @@
       <c r="C801" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D801" t="s">
+      <c r="D801" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14959,7 +14961,7 @@
       <c r="C802" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D802" t="s">
+      <c r="D802" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14973,7 +14975,7 @@
       <c r="C803" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D803" t="s">
+      <c r="D803" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14987,7 +14989,7 @@
       <c r="C804" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D804" t="s">
+      <c r="D804" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15001,7 +15003,7 @@
       <c r="C805" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D805" t="s">
+      <c r="D805" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15015,7 +15017,7 @@
       <c r="C806" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D806" t="s">
+      <c r="D806" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15029,7 +15031,7 @@
       <c r="C807" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D807" t="s">
+      <c r="D807" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15043,7 +15045,7 @@
       <c r="C808" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D808" t="s">
+      <c r="D808" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15057,7 +15059,7 @@
       <c r="C809" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D809" t="s">
+      <c r="D809" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15071,7 +15073,7 @@
       <c r="C810" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D810" t="s">
+      <c r="D810" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15085,7 +15087,7 @@
       <c r="C811" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D811" t="s">
+      <c r="D811" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15099,7 +15101,7 @@
       <c r="C812" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D812" t="s">
+      <c r="D812" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15113,7 +15115,7 @@
       <c r="C813" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D813" t="s">
+      <c r="D813" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15127,7 +15129,7 @@
       <c r="C814" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D814" t="s">
+      <c r="D814" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15141,7 +15143,7 @@
       <c r="C815" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D815" t="s">
+      <c r="D815" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15155,7 +15157,7 @@
       <c r="C816" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D816" t="s">
+      <c r="D816" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15169,7 +15171,7 @@
       <c r="C817" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D817" t="s">
+      <c r="D817" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15183,7 +15185,7 @@
       <c r="C818" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D818" t="s">
+      <c r="D818" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15197,7 +15199,7 @@
       <c r="C819" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D819" t="s">
+      <c r="D819" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15211,7 +15213,7 @@
       <c r="C820" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D820" t="s">
+      <c r="D820" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15225,7 +15227,7 @@
       <c r="C821" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D821" t="s">
+      <c r="D821" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15239,7 +15241,7 @@
       <c r="C822" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D822" t="s">
+      <c r="D822" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15253,7 +15255,7 @@
       <c r="C823" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D823" t="s">
+      <c r="D823" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15267,7 +15269,7 @@
       <c r="C824" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D824" t="s">
+      <c r="D824" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15281,7 +15283,7 @@
       <c r="C825" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D825" t="s">
+      <c r="D825" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15295,7 +15297,7 @@
       <c r="C826" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D826" t="s">
+      <c r="D826" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15309,7 +15311,7 @@
       <c r="C827" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D827" t="s">
+      <c r="D827" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15323,7 +15325,7 @@
       <c r="C828" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D828" t="s">
+      <c r="D828" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15337,7 +15339,7 @@
       <c r="C829" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D829" t="s">
+      <c r="D829" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -15351,7 +15353,7 @@
       <c r="C830" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D830" t="s">
+      <c r="D830" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -15365,7 +15367,7 @@
       <c r="C831" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D831" t="s">
+      <c r="D831" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -15379,7 +15381,7 @@
       <c r="C832" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D832" t="s">
+      <c r="D832" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15393,7 +15395,7 @@
       <c r="C833" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D833" t="s">
+      <c r="D833" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15407,7 +15409,7 @@
       <c r="C834" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D834" t="s">
+      <c r="D834" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15421,7 +15423,7 @@
       <c r="C835" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D835" t="s">
+      <c r="D835" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15435,7 +15437,7 @@
       <c r="C836" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D836" t="s">
+      <c r="D836" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15449,7 +15451,7 @@
       <c r="C837" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D837" t="s">
+      <c r="D837" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15463,7 +15465,7 @@
       <c r="C838" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D838" t="s">
+      <c r="D838" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15477,7 +15479,7 @@
       <c r="C839" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D839" t="s">
+      <c r="D839" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15491,7 +15493,7 @@
       <c r="C840" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D840" t="s">
+      <c r="D840" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15505,7 +15507,7 @@
       <c r="C841" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D841" t="s">
+      <c r="D841" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15519,7 +15521,7 @@
       <c r="C842" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D842" t="s">
+      <c r="D842" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15533,7 +15535,7 @@
       <c r="C843" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D843" t="s">
+      <c r="D843" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15547,7 +15549,7 @@
       <c r="C844" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D844" t="s">
+      <c r="D844" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15561,7 +15563,7 @@
       <c r="C845" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D845" t="s">
+      <c r="D845" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15575,7 +15577,7 @@
       <c r="C846" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D846" t="s">
+      <c r="D846" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15589,7 +15591,7 @@
       <c r="C847" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="D847" t="s">
+      <c r="D847" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15603,7 +15605,7 @@
       <c r="C848" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="D848" t="s">
+      <c r="D848" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15617,7 +15619,7 @@
       <c r="C849" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="D849" t="s">
+      <c r="D849" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15631,7 +15633,7 @@
       <c r="C850" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="D850" t="s">
+      <c r="D850" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15645,7 +15647,7 @@
       <c r="C851" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="D851" t="s">
+      <c r="D851" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15659,7 +15661,7 @@
       <c r="C852" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="D852" t="s">
+      <c r="D852" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15673,7 +15675,7 @@
       <c r="C853" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D853" t="s">
+      <c r="D853" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -15687,7 +15689,7 @@
       <c r="C854" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="D854" t="s">
+      <c r="D854" s="5" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -15701,7 +15703,7 @@
       <c r="C855" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="D855" t="s">
+      <c r="D855" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -15715,7 +15717,7 @@
       <c r="C856" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="D856" t="s">
+      <c r="D856" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -15729,7 +15731,7 @@
       <c r="C857" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="D857" t="s">
+      <c r="D857" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -15743,7 +15745,7 @@
       <c r="C858" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="D858" t="s">
+      <c r="D858" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -15757,7 +15759,7 @@
       <c r="C859" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D859" t="s">
+      <c r="D859" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15771,7 +15773,7 @@
       <c r="C860" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D860" t="s">
+      <c r="D860" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15785,7 +15787,7 @@
       <c r="C861" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D861" t="s">
+      <c r="D861" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15799,7 +15801,7 @@
       <c r="C862" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D862" t="s">
+      <c r="D862" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15813,7 +15815,7 @@
       <c r="C863" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D863" t="s">
+      <c r="D863" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15827,7 +15829,7 @@
       <c r="C864" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D864" t="s">
+      <c r="D864" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15841,7 +15843,7 @@
       <c r="C865" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D865" t="s">
+      <c r="D865" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15855,7 +15857,7 @@
       <c r="C866" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D866" t="s">
+      <c r="D866" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15869,7 +15871,7 @@
       <c r="C867" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D867" t="s">
+      <c r="D867" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15883,7 +15885,7 @@
       <c r="C868" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D868" t="s">
+      <c r="D868" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15897,7 +15899,7 @@
       <c r="C869" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D869" t="s">
+      <c r="D869" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15911,7 +15913,7 @@
       <c r="C870" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D870" t="s">
+      <c r="D870" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15925,7 +15927,7 @@
       <c r="C871" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D871" t="s">
+      <c r="D871" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15939,7 +15941,7 @@
       <c r="C872" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D872" t="s">
+      <c r="D872" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15953,7 +15955,7 @@
       <c r="C873" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D873" t="s">
+      <c r="D873" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15967,7 +15969,7 @@
       <c r="C874" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D874" t="s">
+      <c r="D874" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15981,7 +15983,7 @@
       <c r="C875" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D875" t="s">
+      <c r="D875" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15995,7 +15997,7 @@
       <c r="C876" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D876" t="s">
+      <c r="D876" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16009,7 +16011,7 @@
       <c r="C877" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D877" t="s">
+      <c r="D877" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16023,7 +16025,7 @@
       <c r="C878" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D878" t="s">
+      <c r="D878" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16037,7 +16039,7 @@
       <c r="C879" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D879" t="s">
+      <c r="D879" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16051,7 +16053,7 @@
       <c r="C880" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D880" t="s">
+      <c r="D880" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16065,7 +16067,7 @@
       <c r="C881" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D881" t="s">
+      <c r="D881" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16079,7 +16081,7 @@
       <c r="C882" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D882" t="s">
+      <c r="D882" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16093,7 +16095,7 @@
       <c r="C883" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D883" t="s">
+      <c r="D883" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16107,7 +16109,7 @@
       <c r="C884" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D884" t="s">
+      <c r="D884" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16121,7 +16123,7 @@
       <c r="C885" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D885" t="s">
+      <c r="D885" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16135,7 +16137,7 @@
       <c r="C886" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D886" t="s">
+      <c r="D886" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16149,7 +16151,7 @@
       <c r="C887" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D887" t="s">
+      <c r="D887" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16163,7 +16165,7 @@
       <c r="C888" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D888" t="s">
+      <c r="D888" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16177,7 +16179,7 @@
       <c r="C889" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D889" t="s">
+      <c r="D889" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16191,7 +16193,7 @@
       <c r="C890" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D890" t="s">
+      <c r="D890" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16205,7 +16207,7 @@
       <c r="C891" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D891" t="s">
+      <c r="D891" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16219,7 +16221,7 @@
       <c r="C892" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D892" t="s">
+      <c r="D892" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16233,7 +16235,7 @@
       <c r="C893" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D893" t="s">
+      <c r="D893" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16247,7 +16249,7 @@
       <c r="C894" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D894" t="s">
+      <c r="D894" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16261,7 +16263,7 @@
       <c r="C895" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D895" t="s">
+      <c r="D895" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16275,7 +16277,7 @@
       <c r="C896" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D896" t="s">
+      <c r="D896" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16289,7 +16291,7 @@
       <c r="C897" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D897" t="s">
+      <c r="D897" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16303,7 +16305,7 @@
       <c r="C898" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D898" t="s">
+      <c r="D898" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16317,7 +16319,7 @@
       <c r="C899" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D899" t="s">
+      <c r="D899" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16331,7 +16333,7 @@
       <c r="C900" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D900" t="s">
+      <c r="D900" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16345,7 +16347,7 @@
       <c r="C901" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D901" t="s">
+      <c r="D901" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16359,7 +16361,7 @@
       <c r="C902" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D902" t="s">
+      <c r="D902" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16373,7 +16375,7 @@
       <c r="C903" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D903" t="s">
+      <c r="D903" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16387,7 +16389,7 @@
       <c r="C904" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D904" t="s">
+      <c r="D904" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16401,7 +16403,7 @@
       <c r="C905" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D905" t="s">
+      <c r="D905" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16415,7 +16417,7 @@
       <c r="C906" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D906" t="s">
+      <c r="D906" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16429,7 +16431,7 @@
       <c r="C907" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D907" t="s">
+      <c r="D907" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16443,7 +16445,7 @@
       <c r="C908" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D908" t="s">
+      <c r="D908" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16457,7 +16459,7 @@
       <c r="C909" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D909" t="s">
+      <c r="D909" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16471,7 +16473,7 @@
       <c r="C910" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D910" t="s">
+      <c r="D910" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16485,7 +16487,7 @@
       <c r="C911" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D911" t="s">
+      <c r="D911" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16499,7 +16501,7 @@
       <c r="C912" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D912" t="s">
+      <c r="D912" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16513,7 +16515,7 @@
       <c r="C913" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D913" t="s">
+      <c r="D913" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16527,7 +16529,7 @@
       <c r="C914" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D914" t="s">
+      <c r="D914" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16541,7 +16543,7 @@
       <c r="C915" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D915" t="s">
+      <c r="D915" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16555,7 +16557,7 @@
       <c r="C916" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D916" t="s">
+      <c r="D916" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16569,7 +16571,7 @@
       <c r="C917" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D917" t="s">
+      <c r="D917" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16583,7 +16585,7 @@
       <c r="C918" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D918" t="s">
+      <c r="D918" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16597,7 +16599,7 @@
       <c r="C919" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D919" t="s">
+      <c r="D919" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16611,7 +16613,7 @@
       <c r="C920" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D920" t="s">
+      <c r="D920" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16625,7 +16627,7 @@
       <c r="C921" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D921" t="s">
+      <c r="D921" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16639,7 +16641,7 @@
       <c r="C922" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D922" t="s">
+      <c r="D922" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16653,7 +16655,7 @@
       <c r="C923" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D923" t="s">
+      <c r="D923" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16667,7 +16669,7 @@
       <c r="C924" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D924" t="s">
+      <c r="D924" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16681,7 +16683,7 @@
       <c r="C925" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D925" t="s">
+      <c r="D925" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16695,7 +16697,7 @@
       <c r="C926" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D926" t="s">
+      <c r="D926" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16709,7 +16711,7 @@
       <c r="C927" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D927" t="s">
+      <c r="D927" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16723,7 +16725,7 @@
       <c r="C928" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D928" t="s">
+      <c r="D928" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16737,7 +16739,7 @@
       <c r="C929" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D929" t="s">
+      <c r="D929" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16751,7 +16753,7 @@
       <c r="C930" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D930" t="s">
+      <c r="D930" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16765,7 +16767,7 @@
       <c r="C931" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D931" t="s">
+      <c r="D931" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16779,7 +16781,7 @@
       <c r="C932" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D932" t="s">
+      <c r="D932" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16793,7 +16795,7 @@
       <c r="C933" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D933" t="s">
+      <c r="D933" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16807,7 +16809,7 @@
       <c r="C934" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D934" t="s">
+      <c r="D934" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16821,7 +16823,7 @@
       <c r="C935" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D935" t="s">
+      <c r="D935" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16835,7 +16837,7 @@
       <c r="C936" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D936" t="s">
+      <c r="D936" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16849,7 +16851,7 @@
       <c r="C937" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D937" t="s">
+      <c r="D937" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16863,7 +16865,7 @@
       <c r="C938" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D938" t="s">
+      <c r="D938" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16877,7 +16879,7 @@
       <c r="C939" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D939" t="s">
+      <c r="D939" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16891,7 +16893,7 @@
       <c r="C940" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D940" t="s">
+      <c r="D940" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16905,7 +16907,7 @@
       <c r="C941" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="D941" t="s">
+      <c r="D941" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -16919,7 +16921,7 @@
       <c r="C942" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="D942" t="s">
+      <c r="D942" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16933,7 +16935,7 @@
       <c r="C943" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="D943" t="s">
+      <c r="D943" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -16947,7 +16949,7 @@
       <c r="C944" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="D944" t="s">
+      <c r="D944" s="5" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -16961,7 +16963,7 @@
       <c r="C945" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="D945" t="s">
+      <c r="D945" s="5" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -16975,7 +16977,7 @@
       <c r="C946" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D946" t="s">
+      <c r="D946" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -16989,7 +16991,7 @@
       <c r="C947" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="D947" t="s">
+      <c r="D947" s="5" t="s">
         <v>998</v>
       </c>
     </row>
@@ -17003,22 +17005,8 @@
       <c r="C948" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="D948" t="s">
+      <c r="D948" s="5" t="s">
         <v>998</v>
-      </c>
-    </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A949" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B949" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C949" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D949" s="5" t="s">
-        <v>1012</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TestDataBase.xlsx
+++ b/DataBase/TestDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1134ab3ca505a/Рабочий стол/Brake-Pad-Catalog/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7DE2CA9-BC9C-4EE3-B392-DBD4849B8BFE}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1810E052-DAA5-4B97-9B01-BECD3D300CA8}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3459,6 +3459,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3724,8 +3728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E948"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A919" workbookViewId="0">
-      <selection activeCell="E926" sqref="E926"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3733,6 +3737,7 @@
     <col min="1" max="1" width="23.453125" style="5" customWidth="1"/>
     <col min="2" max="3" width="18.6328125" style="5"/>
     <col min="4" max="4" width="14.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.6328125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">

--- a/DataBase/TestDataBase.xlsx
+++ b/DataBase/TestDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1134ab3ca505a/Рабочий стол/Brake-Pad-Catalog/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1810E052-DAA5-4B97-9B01-BECD3D300CA8}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC0D656-FB33-42FF-9776-49E65CAB05AE}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3431,6 +3431,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -3729,7 +3733,7 @@
   <dimension ref="A1:E948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F10" sqref="E10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DataBase/TestDataBase.xlsx
+++ b/DataBase/TestDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1134ab3ca505a/Рабочий стол/Brake-Pad-Catalog/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC0D656-FB33-42FF-9776-49E65CAB05AE}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC104877F19F51A05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D8B213-00ED-4B55-894E-B18794B83665}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3435,6 +3435,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -3732,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E948"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="E10:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A930" workbookViewId="0">
+      <selection activeCell="B945" sqref="B945:B950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
